--- a/pose_estimators.xlsx
+++ b/pose_estimators.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pose-Estimation-Benchmarks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\codes\Pose-Estimation-Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A64DC4F-1D72-4BFF-AF86-3F2AFD28B46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28865039-DA07-4CAE-B7C9-A82E6785F724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{458BF1DC-8382-4D06-8CC6-A82EA8C2DB25}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Paper</t>
   </si>
@@ -105,14 +105,29 @@
     <t>Higher HRNet</t>
   </si>
   <si>
-    <t>Fast Pose</t>
+    <t>6.68</t>
+  </si>
+  <si>
+    <t>7.96</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1908.10357.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/HRNet/HigherHRNet-Human-Pose-Estimation</t>
+  </si>
+  <si>
+    <t>11.16</t>
+  </si>
+  <si>
+    <t>***</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,21 +151,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,13 +199,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -498,17 +538,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A347EDA-D87C-475B-BDFF-29FDBADFF9E1}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="107.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -529,91 +569,116 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="B9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -630,8 +695,10 @@
     <hyperlink ref="C6" r:id="rId11" xr:uid="{7C3EF3BB-346A-4F10-BCA4-47B9B7008A29}"/>
     <hyperlink ref="C8" r:id="rId12" xr:uid="{4839C25F-42A9-4556-8EDA-DFAB3DF6F3E1}"/>
     <hyperlink ref="C5" r:id="rId13" xr:uid="{92DA01AB-C840-43CA-A8BA-C56D448314B3}"/>
+    <hyperlink ref="B9" r:id="rId14" xr:uid="{9B00EB37-DE3D-462F-B8CB-61A1A08B60B9}"/>
+    <hyperlink ref="C9" r:id="rId15" xr:uid="{8D59F5C8-CDE5-4EDC-9CAE-3D8E716525D3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/pose_estimators.xlsx
+++ b/pose_estimators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\codes\Pose-Estimation-Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28865039-DA07-4CAE-B7C9-A82E6785F724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49179E4C-CA1B-4289-9CFE-060CF53BBC26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{458BF1DC-8382-4D06-8CC6-A82EA8C2DB25}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Paper</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>***</t>
+  </si>
+  <si>
+    <t>5.28</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +637,9 @@
       <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
